--- a/data/lake-superior-thunder-bay/lake-superior-thunder-bay-hatching.xlsx
+++ b/data/lake-superior-thunder-bay/lake-superior-thunder-bay-hatching.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10808"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/taylor/SynologyDrive/Cisco-Climate-Change/Coregonine-Embryo-Modeling/data/lake-superior-thunder-bay/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4190B736-A414-5E40-AB9C-40B7DC35022A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E73E2848-0DE6-0148-AED4-30EF3DC2FA03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3180" yWindow="2000" windowWidth="27640" windowHeight="16940" xr2:uid="{89B9655F-3F5E-EF49-A346-94FC1F2C3755}"/>
+    <workbookView xWindow="60" yWindow="500" windowWidth="27640" windowHeight="16940" xr2:uid="{89B9655F-3F5E-EF49-A346-94FC1F2C3755}"/>
   </bookViews>
   <sheets>
     <sheet name="lake-superior-thunder-bay-hatch" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="26">
   <si>
     <t>year</t>
   </si>
@@ -47,6 +47,72 @@
   <si>
     <t>mean.density</t>
   </si>
+  <si>
+    <t>#/////////////////////////////////////</t>
+  </si>
+  <si>
+    <t># -----START OF METADATA -----</t>
+  </si>
+  <si>
+    <t># ------------------------------------------------</t>
+  </si>
+  <si>
+    <t># DATE: 1-July-2021</t>
+  </si>
+  <si>
+    <t># AUTHOR: Taylor R. Stewart</t>
+  </si>
+  <si>
+    <t># AUTHOR EMAIL: taylor.stewart@uvm.edu</t>
+  </si>
+  <si>
+    <t># AUTHOR ADDRESS: 3 College St, Burlington VT, 05401 USA</t>
+  </si>
+  <si>
+    <t># AUTHOR WEBSITE: https://taylorstewart.github.io/</t>
+  </si>
+  <si>
+    <t># COLLABORATORS: Matteo Zucchetta; Juha Karjalainen; Chloé Goulon; Orlane Anneville; Mark R. Vinson; Josef Wanzenböck; and Jason D. Stockwell</t>
+  </si>
+  <si>
+    <t># FUNDING SOURCES: USGS #G17AC00042</t>
+  </si>
+  <si>
+    <t># REPOSITORY: https://github.com/taylorstewart/Stewart-et-al-20XX---Coregonine-Embryo-Modeling</t>
+  </si>
+  <si>
+    <t xml:space="preserve"># CITATIONS: </t>
+  </si>
+  <si>
+    <t># VARIABLE DESCRIPTION:</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # year: year class</t>
+  </si>
+  <si>
+    <t># OWNERSHIP: Jared T. Myers</t>
+  </si>
+  <si>
+    <t># TITLE: Back-calculated mean and normal distribution of larval hatch dates from Jared Myers' dissertation</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # date: date of capture</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # mean.abundance: mean daily abundance of larvae</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  # mean.density: mean daily density of larvae</t>
+  </si>
+  <si>
+    <t># ----- END OF METADATA -----</t>
+  </si>
+  <si>
+    <t>#</t>
+  </si>
+  <si>
+    <t># ----- START OF DATA -----</t>
+  </si>
 </sst>
 </file>
 
@@ -56,7 +122,7 @@
     <numFmt numFmtId="164" formatCode="0.0"/>
     <numFmt numFmtId="165" formatCode="0.000000"/>
   </numFmts>
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -78,6 +144,13 @@
       <color theme="1"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -101,7 +174,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -141,6 +214,7 @@
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -456,10 +530,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AB94275-A1A3-D146-866B-1B7EA602A8C3}">
-  <dimension ref="A1:J397"/>
+  <dimension ref="A1:J425"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D4" sqref="D4"/>
+    <sheetView tabSelected="1" topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -471,543 +545,296 @@
     <col min="7" max="7" width="12.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A1" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="B1" s="15"/>
+      <c r="C1" s="15"/>
+      <c r="D1" s="15"/>
+      <c r="E1" s="15"/>
+      <c r="F1" s="15"/>
+      <c r="G1" s="15"/>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A2" s="15" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="15"/>
+      <c r="C2" s="15"/>
+      <c r="D2" s="15"/>
+      <c r="E2" s="15"/>
+      <c r="F2" s="15"/>
+      <c r="G2" s="15"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A3" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B3" s="15"/>
+      <c r="C3" s="15"/>
+      <c r="D3" s="15"/>
+      <c r="E3" s="15"/>
+      <c r="F3" s="15"/>
+      <c r="G3" s="15"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A4" s="15" t="s">
+        <v>19</v>
+      </c>
+      <c r="B4" s="15"/>
+      <c r="C4" s="15"/>
+      <c r="D4" s="15"/>
+      <c r="E4" s="15"/>
+      <c r="F4" s="15"/>
+      <c r="G4" s="15"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A5" s="15" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5" s="15"/>
+      <c r="C5" s="15"/>
+      <c r="D5" s="15"/>
+      <c r="E5" s="15"/>
+      <c r="F5" s="15"/>
+      <c r="G5" s="15"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A6" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6" s="15"/>
+      <c r="C6" s="15"/>
+      <c r="D6" s="15"/>
+      <c r="E6" s="15"/>
+      <c r="F6" s="15"/>
+      <c r="G6" s="15"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A7" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B7" s="15"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
+      <c r="E7" s="15"/>
+      <c r="F7" s="15"/>
+      <c r="G7" s="15"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A8" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="B8" s="15"/>
+      <c r="C8" s="15"/>
+      <c r="D8" s="15"/>
+      <c r="E8" s="15"/>
+      <c r="F8" s="15"/>
+      <c r="G8" s="15"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9" s="15"/>
+      <c r="C9" s="15"/>
+      <c r="D9" s="15"/>
+      <c r="E9" s="15"/>
+      <c r="F9" s="15"/>
+      <c r="G9" s="15"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A10" s="15" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" s="15"/>
+      <c r="C10" s="15"/>
+      <c r="D10" s="15"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="15"/>
+      <c r="G10" s="15"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A11" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="15"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
+      <c r="E11" s="15"/>
+      <c r="F11" s="15"/>
+      <c r="G11" s="15"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A12" s="15" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="15"/>
+      <c r="C12" s="15"/>
+      <c r="D12" s="15"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="15"/>
+      <c r="G12" s="15"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A13" s="15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
+      <c r="E13" s="15"/>
+      <c r="F13" s="15"/>
+      <c r="G13" s="15"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A14" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="B14" s="15"/>
+      <c r="C14" s="15"/>
+      <c r="D14" s="15"/>
+      <c r="E14" s="15"/>
+      <c r="F14" s="15"/>
+      <c r="G14" s="15"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A15" s="15" t="s">
+        <v>14</v>
+      </c>
+      <c r="B15" s="15"/>
+      <c r="C15" s="15"/>
+      <c r="D15" s="15"/>
+      <c r="E15" s="15"/>
+      <c r="F15" s="15"/>
+      <c r="G15" s="15"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A16" s="15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B16" s="15"/>
+      <c r="C16" s="15"/>
+      <c r="D16" s="15"/>
+      <c r="E16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A17" s="15" t="s">
+        <v>6</v>
+      </c>
+      <c r="B17" s="15"/>
+      <c r="C17" s="15"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="15"/>
+      <c r="F17" s="15"/>
+      <c r="G17" s="15"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>16</v>
+      </c>
+      <c r="B18" s="15"/>
+      <c r="C18" s="15"/>
+      <c r="D18" s="15"/>
+      <c r="E18" s="15"/>
+      <c r="F18" s="15"/>
+      <c r="G18" s="15"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A19" s="15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B19" s="15"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="15"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="15"/>
+      <c r="G19" s="15"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A20" t="s">
+        <v>20</v>
+      </c>
+      <c r="C20" s="14"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A21" t="s">
+        <v>21</v>
+      </c>
+      <c r="C21" s="14"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A22" t="s">
+        <v>22</v>
+      </c>
+      <c r="C22" s="14"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A24" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A29" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B29" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="13" t="s">
+      <c r="C29" s="13" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="13" t="s">
+      <c r="D29" s="13" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="1"/>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="1"/>
-      <c r="J1" s="3"/>
-    </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2">
+      <c r="E29" s="1"/>
+      <c r="F29" s="1"/>
+      <c r="G29" s="1"/>
+      <c r="H29" s="2"/>
+      <c r="I29" s="1"/>
+      <c r="J29" s="3"/>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A30">
         <v>2008</v>
       </c>
-      <c r="B2" s="14">
+      <c r="B30" s="14">
         <v>39575</v>
       </c>
-      <c r="C2" s="13">
+      <c r="C30" s="13">
         <v>3.2105263157894699</v>
       </c>
-      <c r="D2" s="13">
+      <c r="D30" s="13">
         <v>28.861008605154201</v>
       </c>
-      <c r="E2" s="7"/>
-      <c r="F2" s="7"/>
-      <c r="G2" s="7"/>
-      <c r="H2" s="8"/>
-      <c r="I2" s="6"/>
-      <c r="J2" s="9"/>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3">
-        <v>2008</v>
-      </c>
-      <c r="B3" s="14">
-        <v>39576</v>
-      </c>
-      <c r="C3" s="13">
-        <v>5.4166666666666696</v>
-      </c>
-      <c r="D3" s="13">
-        <v>50.033802775482897</v>
-      </c>
-      <c r="E3" s="7"/>
-      <c r="F3" s="7"/>
-      <c r="G3" s="7"/>
-      <c r="H3" s="8"/>
-      <c r="I3" s="6"/>
-      <c r="J3" s="9"/>
-    </row>
-    <row r="4" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A4">
-        <v>2008</v>
-      </c>
-      <c r="B4" s="14">
-        <v>39577</v>
-      </c>
-      <c r="C4" s="13">
-        <v>16.899999999999999</v>
-      </c>
-      <c r="D4" s="13">
-        <v>156.67096409928399</v>
-      </c>
-      <c r="E4" s="7"/>
-      <c r="F4" s="7"/>
-      <c r="G4" s="7"/>
-      <c r="H4" s="8"/>
-      <c r="I4" s="6"/>
-      <c r="J4" s="9"/>
-    </row>
-    <row r="5" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A5">
-        <v>2008</v>
-      </c>
-      <c r="B5" s="14">
-        <v>39578</v>
-      </c>
-      <c r="C5" s="13">
-        <v>6.4</v>
-      </c>
-      <c r="D5" s="13">
-        <v>60.1075608695228</v>
-      </c>
-      <c r="E5" s="7"/>
-      <c r="F5" s="7"/>
-      <c r="G5" s="7"/>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6"/>
-      <c r="J5" s="9"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A6">
-        <v>2008</v>
-      </c>
-      <c r="B6" s="14">
-        <v>39580</v>
-      </c>
-      <c r="C6" s="13">
-        <v>19</v>
-      </c>
-      <c r="D6" s="13">
-        <v>176.89030566516601</v>
-      </c>
-      <c r="E6" s="7"/>
-      <c r="F6" s="7"/>
-      <c r="G6" s="7"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="6"/>
-      <c r="J6" s="9"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A7">
-        <v>2008</v>
-      </c>
-      <c r="B7" s="14">
-        <v>39581</v>
-      </c>
-      <c r="C7" s="13">
-        <v>14</v>
-      </c>
-      <c r="D7" s="13">
-        <v>131.81135538806799</v>
-      </c>
-      <c r="E7" s="7"/>
-      <c r="F7" s="7"/>
-      <c r="G7" s="7"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="9"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A8">
-        <v>2008</v>
-      </c>
-      <c r="B8" s="14">
-        <v>39582</v>
-      </c>
-      <c r="C8" s="13">
-        <v>51.0625</v>
-      </c>
-      <c r="D8" s="13">
-        <v>481.42399074080203</v>
-      </c>
-      <c r="E8" s="7"/>
-      <c r="F8" s="7"/>
-      <c r="G8" s="7"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="6"/>
-      <c r="J8" s="9"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A9">
-        <v>2008</v>
-      </c>
-      <c r="B9" s="14">
-        <v>39587</v>
-      </c>
-      <c r="C9" s="13">
-        <v>18.9166666666667</v>
-      </c>
-      <c r="D9" s="13">
-        <v>179.54053670706901</v>
-      </c>
-      <c r="E9" s="7"/>
-      <c r="F9" s="7"/>
-      <c r="G9" s="7"/>
-      <c r="H9" s="8"/>
-      <c r="I9" s="6"/>
-      <c r="J9" s="9"/>
-    </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A10">
-        <v>2008</v>
-      </c>
-      <c r="B10" s="14">
-        <v>39590</v>
-      </c>
-      <c r="C10" s="13">
-        <v>23.125</v>
-      </c>
-      <c r="D10" s="13">
-        <v>220.15850421274001</v>
-      </c>
-      <c r="E10" s="7"/>
-      <c r="F10" s="7"/>
-      <c r="G10" s="7"/>
-      <c r="H10" s="8"/>
-      <c r="I10" s="6"/>
-      <c r="J10" s="9"/>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A11">
-        <v>2008</v>
-      </c>
-      <c r="B11" s="14">
-        <v>39591</v>
-      </c>
-      <c r="C11" s="13">
-        <v>24.909090909090899</v>
-      </c>
-      <c r="D11" s="13">
-        <v>237.11013797183901</v>
-      </c>
-      <c r="E11" s="7"/>
-      <c r="F11" s="7"/>
-      <c r="G11" s="7"/>
-      <c r="H11" s="8"/>
-      <c r="I11" s="6"/>
-      <c r="J11" s="9"/>
-    </row>
-    <row r="12" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A12">
-        <v>2008</v>
-      </c>
-      <c r="B12" s="14">
-        <v>39592</v>
-      </c>
-      <c r="C12" s="13">
-        <v>36.0322580645161</v>
-      </c>
-      <c r="D12" s="13">
-        <v>340.30621538750199</v>
-      </c>
-      <c r="E12" s="7"/>
-      <c r="F12" s="7"/>
-      <c r="G12" s="7"/>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6"/>
-      <c r="J12" s="9"/>
-    </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A13">
-        <v>2008</v>
-      </c>
-      <c r="B13" s="14">
-        <v>39593</v>
-      </c>
-      <c r="C13" s="13">
-        <v>80.428571428571402</v>
-      </c>
-      <c r="D13" s="13">
-        <v>758.671759310325</v>
-      </c>
-      <c r="E13" s="7"/>
-      <c r="F13" s="7"/>
-      <c r="G13" s="7"/>
-      <c r="H13" s="8"/>
-      <c r="I13" s="6"/>
-      <c r="J13" s="9"/>
-    </row>
-    <row r="14" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A14">
-        <v>2009</v>
-      </c>
-      <c r="B14" s="14">
-        <v>39950</v>
-      </c>
-      <c r="C14" s="13">
-        <v>27.1</v>
-      </c>
-      <c r="D14" s="13">
-        <v>250.79114937441199</v>
-      </c>
-      <c r="E14" s="7"/>
-      <c r="F14" s="7"/>
-      <c r="G14" s="7"/>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6"/>
-      <c r="J14" s="9"/>
-    </row>
-    <row r="15" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A15">
-        <v>2009</v>
-      </c>
-      <c r="B15" s="14">
-        <v>39952</v>
-      </c>
-      <c r="C15" s="13">
-        <v>30.565217391304301</v>
-      </c>
-      <c r="D15" s="13">
-        <v>280.610183414056</v>
-      </c>
-      <c r="E15" s="7"/>
-      <c r="F15" s="7"/>
-      <c r="G15" s="7"/>
-      <c r="H15" s="8"/>
-      <c r="I15" s="6"/>
-      <c r="J15" s="9"/>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A16">
-        <v>2009</v>
-      </c>
-      <c r="B16" s="14">
-        <v>39953</v>
-      </c>
-      <c r="C16" s="13">
-        <v>71.75</v>
-      </c>
-      <c r="D16" s="13">
-        <v>654.38457068311095</v>
-      </c>
-      <c r="E16" s="7"/>
-      <c r="F16" s="7"/>
-      <c r="G16" s="7"/>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6"/>
-      <c r="J16" s="9"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A17">
-        <v>2009</v>
-      </c>
-      <c r="B17" s="14">
-        <v>39955</v>
-      </c>
-      <c r="C17" s="13">
-        <v>79</v>
-      </c>
-      <c r="D17" s="13">
-        <v>699.57738243909705</v>
-      </c>
-      <c r="E17" s="7"/>
-      <c r="F17" s="7"/>
-      <c r="G17" s="7"/>
-      <c r="H17" s="8"/>
-      <c r="I17" s="6"/>
-      <c r="J17" s="9"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A18">
-        <v>2009</v>
-      </c>
-      <c r="B18" s="14">
-        <v>39957</v>
-      </c>
-      <c r="C18" s="13">
-        <v>6.4761904761904798</v>
-      </c>
-      <c r="D18" s="13">
-        <v>57.870111699793398</v>
-      </c>
-      <c r="E18" s="7"/>
-      <c r="F18" s="7"/>
-      <c r="G18" s="7"/>
-      <c r="H18" s="8"/>
-      <c r="I18" s="6"/>
-      <c r="J18" s="9"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A19">
-        <v>2009</v>
-      </c>
-      <c r="B19" s="14">
-        <v>39958</v>
-      </c>
-      <c r="C19" s="13">
-        <v>231.92857142857099</v>
-      </c>
-      <c r="D19" s="13">
-        <v>2169.50588342213</v>
-      </c>
-      <c r="E19" s="7"/>
-      <c r="F19" s="7"/>
-      <c r="G19" s="7"/>
-      <c r="H19" s="8"/>
-      <c r="I19" s="6"/>
-      <c r="J19" s="9"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A20">
-        <v>2009</v>
-      </c>
-      <c r="B20" s="14">
-        <v>39960</v>
-      </c>
-      <c r="C20" s="13">
-        <v>140.48484848484799</v>
-      </c>
-      <c r="D20" s="13">
-        <v>1278.5138085804799</v>
-      </c>
-      <c r="E20" s="7"/>
-      <c r="F20" s="7"/>
-      <c r="G20" s="7"/>
-      <c r="H20" s="8"/>
-      <c r="I20" s="6"/>
-      <c r="J20" s="9"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A21">
-        <v>2009</v>
-      </c>
-      <c r="B21" s="14">
-        <v>39961</v>
-      </c>
-      <c r="C21" s="13">
-        <v>128.42307692307699</v>
-      </c>
-      <c r="D21" s="13">
-        <v>1136.9629495987699</v>
-      </c>
-      <c r="E21" s="7"/>
-      <c r="F21" s="7"/>
-      <c r="G21" s="7"/>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6"/>
-      <c r="J21" s="9"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A22">
-        <v>2009</v>
-      </c>
-      <c r="B22" s="14">
-        <v>39962</v>
-      </c>
-      <c r="C22" s="13">
-        <v>6.2</v>
-      </c>
-      <c r="D22" s="13">
-        <v>61.605648137791199</v>
-      </c>
-      <c r="E22" s="7"/>
-      <c r="F22" s="7"/>
-      <c r="G22" s="7"/>
-      <c r="H22" s="8"/>
-      <c r="I22" s="6"/>
-      <c r="J22" s="9"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A23">
-        <v>2009</v>
-      </c>
-      <c r="B23" s="14">
-        <v>39964</v>
-      </c>
-      <c r="C23" s="13">
-        <v>12.4</v>
-      </c>
-      <c r="D23" s="13">
-        <v>114.147355993408</v>
-      </c>
-      <c r="E23" s="7"/>
-      <c r="F23" s="7"/>
-      <c r="G23" s="7"/>
-      <c r="H23" s="8"/>
-      <c r="I23" s="6"/>
-      <c r="J23" s="9"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A24" s="4"/>
-      <c r="B24" s="5"/>
-      <c r="C24" s="6"/>
-      <c r="D24" s="7"/>
-      <c r="E24" s="7"/>
-      <c r="F24" s="7"/>
-      <c r="G24" s="7"/>
-      <c r="H24" s="8"/>
-      <c r="I24" s="6"/>
-      <c r="J24" s="9"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A25" s="4"/>
-      <c r="B25" s="5"/>
-      <c r="C25" s="6"/>
-      <c r="D25" s="7"/>
-      <c r="E25" s="7"/>
-      <c r="F25" s="7"/>
-      <c r="G25" s="7"/>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6"/>
-      <c r="J25" s="9"/>
-    </row>
-    <row r="26" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A26" s="4"/>
-      <c r="B26" s="5"/>
-      <c r="C26" s="6"/>
-      <c r="D26" s="7"/>
-      <c r="E26" s="7"/>
-      <c r="F26" s="7"/>
-      <c r="G26" s="7"/>
-      <c r="H26" s="8"/>
-      <c r="I26" s="6"/>
-      <c r="J26" s="9"/>
-    </row>
-    <row r="27" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A27" s="4"/>
-      <c r="B27" s="5"/>
-      <c r="C27" s="6"/>
-      <c r="D27" s="7"/>
-      <c r="E27" s="7"/>
-      <c r="F27" s="7"/>
-      <c r="G27" s="7"/>
-      <c r="H27" s="8"/>
-      <c r="I27" s="6"/>
-      <c r="J27" s="9"/>
-    </row>
-    <row r="28" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A28" s="4"/>
-      <c r="B28" s="5"/>
-      <c r="C28" s="6"/>
-      <c r="D28" s="7"/>
-      <c r="E28" s="7"/>
-      <c r="F28" s="7"/>
-      <c r="G28" s="7"/>
-      <c r="H28" s="8"/>
-      <c r="I28" s="6"/>
-      <c r="J28" s="9"/>
-    </row>
-    <row r="29" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A29" s="4"/>
-      <c r="B29" s="5"/>
-      <c r="C29" s="6"/>
-      <c r="D29" s="7"/>
-      <c r="E29" s="7"/>
-      <c r="F29" s="7"/>
-      <c r="G29" s="7"/>
-      <c r="H29" s="8"/>
-      <c r="I29" s="6"/>
-      <c r="J29" s="9"/>
-    </row>
-    <row r="30" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A30" s="4"/>
-      <c r="B30" s="5"/>
-      <c r="C30" s="6"/>
-      <c r="D30" s="7"/>
       <c r="E30" s="7"/>
       <c r="F30" s="7"/>
       <c r="G30" s="7"/>
@@ -1016,10 +843,18 @@
       <c r="J30" s="9"/>
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A31" s="4"/>
-      <c r="B31" s="5"/>
-      <c r="C31" s="6"/>
-      <c r="D31" s="7"/>
+      <c r="A31">
+        <v>2008</v>
+      </c>
+      <c r="B31" s="14">
+        <v>39576</v>
+      </c>
+      <c r="C31" s="13">
+        <v>5.4166666666666696</v>
+      </c>
+      <c r="D31" s="13">
+        <v>50.033802775482897</v>
+      </c>
       <c r="E31" s="7"/>
       <c r="F31" s="7"/>
       <c r="G31" s="7"/>
@@ -1028,10 +863,18 @@
       <c r="J31" s="9"/>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A32" s="4"/>
-      <c r="B32" s="5"/>
-      <c r="C32" s="6"/>
-      <c r="D32" s="7"/>
+      <c r="A32">
+        <v>2008</v>
+      </c>
+      <c r="B32" s="14">
+        <v>39577</v>
+      </c>
+      <c r="C32" s="13">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D32" s="13">
+        <v>156.67096409928399</v>
+      </c>
       <c r="E32" s="7"/>
       <c r="F32" s="7"/>
       <c r="G32" s="7"/>
@@ -1040,10 +883,18 @@
       <c r="J32" s="9"/>
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A33" s="4"/>
-      <c r="B33" s="5"/>
-      <c r="C33" s="6"/>
-      <c r="D33" s="7"/>
+      <c r="A33">
+        <v>2008</v>
+      </c>
+      <c r="B33" s="14">
+        <v>39578</v>
+      </c>
+      <c r="C33" s="13">
+        <v>6.4</v>
+      </c>
+      <c r="D33" s="13">
+        <v>60.1075608695228</v>
+      </c>
       <c r="E33" s="7"/>
       <c r="F33" s="7"/>
       <c r="G33" s="7"/>
@@ -1052,10 +903,18 @@
       <c r="J33" s="9"/>
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A34" s="4"/>
-      <c r="B34" s="5"/>
-      <c r="C34" s="6"/>
-      <c r="D34" s="7"/>
+      <c r="A34">
+        <v>2008</v>
+      </c>
+      <c r="B34" s="14">
+        <v>39580</v>
+      </c>
+      <c r="C34" s="13">
+        <v>19</v>
+      </c>
+      <c r="D34" s="13">
+        <v>176.89030566516601</v>
+      </c>
       <c r="E34" s="7"/>
       <c r="F34" s="7"/>
       <c r="G34" s="7"/>
@@ -1064,10 +923,18 @@
       <c r="J34" s="9"/>
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A35" s="4"/>
-      <c r="B35" s="5"/>
-      <c r="C35" s="6"/>
-      <c r="D35" s="7"/>
+      <c r="A35">
+        <v>2008</v>
+      </c>
+      <c r="B35" s="14">
+        <v>39581</v>
+      </c>
+      <c r="C35" s="13">
+        <v>14</v>
+      </c>
+      <c r="D35" s="13">
+        <v>131.81135538806799</v>
+      </c>
       <c r="E35" s="7"/>
       <c r="F35" s="7"/>
       <c r="G35" s="7"/>
@@ -1076,10 +943,18 @@
       <c r="J35" s="9"/>
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A36" s="4"/>
-      <c r="B36" s="5"/>
-      <c r="C36" s="6"/>
-      <c r="D36" s="7"/>
+      <c r="A36">
+        <v>2008</v>
+      </c>
+      <c r="B36" s="14">
+        <v>39582</v>
+      </c>
+      <c r="C36" s="13">
+        <v>51.0625</v>
+      </c>
+      <c r="D36" s="13">
+        <v>481.42399074080203</v>
+      </c>
       <c r="E36" s="7"/>
       <c r="F36" s="7"/>
       <c r="G36" s="7"/>
@@ -1088,10 +963,18 @@
       <c r="J36" s="9"/>
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A37" s="4"/>
-      <c r="B37" s="5"/>
-      <c r="C37" s="6"/>
-      <c r="D37" s="7"/>
+      <c r="A37">
+        <v>2008</v>
+      </c>
+      <c r="B37" s="14">
+        <v>39587</v>
+      </c>
+      <c r="C37" s="13">
+        <v>18.9166666666667</v>
+      </c>
+      <c r="D37" s="13">
+        <v>179.54053670706901</v>
+      </c>
       <c r="E37" s="7"/>
       <c r="F37" s="7"/>
       <c r="G37" s="7"/>
@@ -1100,10 +983,18 @@
       <c r="J37" s="9"/>
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A38" s="4"/>
-      <c r="B38" s="5"/>
-      <c r="C38" s="6"/>
-      <c r="D38" s="7"/>
+      <c r="A38">
+        <v>2008</v>
+      </c>
+      <c r="B38" s="14">
+        <v>39590</v>
+      </c>
+      <c r="C38" s="13">
+        <v>23.125</v>
+      </c>
+      <c r="D38" s="13">
+        <v>220.15850421274001</v>
+      </c>
       <c r="E38" s="7"/>
       <c r="F38" s="7"/>
       <c r="G38" s="7"/>
@@ -1112,10 +1003,18 @@
       <c r="J38" s="9"/>
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A39" s="4"/>
-      <c r="B39" s="5"/>
-      <c r="C39" s="6"/>
-      <c r="D39" s="7"/>
+      <c r="A39">
+        <v>2008</v>
+      </c>
+      <c r="B39" s="14">
+        <v>39591</v>
+      </c>
+      <c r="C39" s="13">
+        <v>24.909090909090899</v>
+      </c>
+      <c r="D39" s="13">
+        <v>237.11013797183901</v>
+      </c>
       <c r="E39" s="7"/>
       <c r="F39" s="7"/>
       <c r="G39" s="7"/>
@@ -1124,10 +1023,18 @@
       <c r="J39" s="9"/>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A40" s="4"/>
-      <c r="B40" s="5"/>
-      <c r="C40" s="6"/>
-      <c r="D40" s="7"/>
+      <c r="A40">
+        <v>2008</v>
+      </c>
+      <c r="B40" s="14">
+        <v>39592</v>
+      </c>
+      <c r="C40" s="13">
+        <v>36.0322580645161</v>
+      </c>
+      <c r="D40" s="13">
+        <v>340.30621538750199</v>
+      </c>
       <c r="E40" s="7"/>
       <c r="F40" s="7"/>
       <c r="G40" s="7"/>
@@ -1136,10 +1043,18 @@
       <c r="J40" s="9"/>
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A41" s="4"/>
-      <c r="B41" s="5"/>
-      <c r="C41" s="6"/>
-      <c r="D41" s="7"/>
+      <c r="A41">
+        <v>2008</v>
+      </c>
+      <c r="B41" s="14">
+        <v>39593</v>
+      </c>
+      <c r="C41" s="13">
+        <v>80.428571428571402</v>
+      </c>
+      <c r="D41" s="13">
+        <v>758.671759310325</v>
+      </c>
       <c r="E41" s="7"/>
       <c r="F41" s="7"/>
       <c r="G41" s="7"/>
@@ -1148,10 +1063,18 @@
       <c r="J41" s="9"/>
     </row>
     <row r="42" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A42" s="4"/>
-      <c r="B42" s="5"/>
-      <c r="C42" s="6"/>
-      <c r="D42" s="7"/>
+      <c r="A42">
+        <v>2009</v>
+      </c>
+      <c r="B42" s="14">
+        <v>39950</v>
+      </c>
+      <c r="C42" s="13">
+        <v>27.1</v>
+      </c>
+      <c r="D42" s="13">
+        <v>250.79114937441199</v>
+      </c>
       <c r="E42" s="7"/>
       <c r="F42" s="7"/>
       <c r="G42" s="7"/>
@@ -1160,10 +1083,18 @@
       <c r="J42" s="9"/>
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A43" s="4"/>
-      <c r="B43" s="5"/>
-      <c r="C43" s="6"/>
-      <c r="D43" s="7"/>
+      <c r="A43">
+        <v>2009</v>
+      </c>
+      <c r="B43" s="14">
+        <v>39952</v>
+      </c>
+      <c r="C43" s="13">
+        <v>30.565217391304301</v>
+      </c>
+      <c r="D43" s="13">
+        <v>280.610183414056</v>
+      </c>
       <c r="E43" s="7"/>
       <c r="F43" s="7"/>
       <c r="G43" s="7"/>
@@ -1172,10 +1103,18 @@
       <c r="J43" s="9"/>
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A44" s="4"/>
-      <c r="B44" s="5"/>
-      <c r="C44" s="6"/>
-      <c r="D44" s="7"/>
+      <c r="A44">
+        <v>2009</v>
+      </c>
+      <c r="B44" s="14">
+        <v>39953</v>
+      </c>
+      <c r="C44" s="13">
+        <v>71.75</v>
+      </c>
+      <c r="D44" s="13">
+        <v>654.38457068311095</v>
+      </c>
       <c r="E44" s="7"/>
       <c r="F44" s="7"/>
       <c r="G44" s="7"/>
@@ -1184,10 +1123,18 @@
       <c r="J44" s="9"/>
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A45" s="4"/>
-      <c r="B45" s="5"/>
-      <c r="C45" s="6"/>
-      <c r="D45" s="7"/>
+      <c r="A45">
+        <v>2009</v>
+      </c>
+      <c r="B45" s="14">
+        <v>39955</v>
+      </c>
+      <c r="C45" s="13">
+        <v>79</v>
+      </c>
+      <c r="D45" s="13">
+        <v>699.57738243909705</v>
+      </c>
       <c r="E45" s="7"/>
       <c r="F45" s="7"/>
       <c r="G45" s="7"/>
@@ -1196,10 +1143,18 @@
       <c r="J45" s="9"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A46" s="4"/>
-      <c r="B46" s="5"/>
-      <c r="C46" s="6"/>
-      <c r="D46" s="7"/>
+      <c r="A46">
+        <v>2009</v>
+      </c>
+      <c r="B46" s="14">
+        <v>39957</v>
+      </c>
+      <c r="C46" s="13">
+        <v>6.4761904761904798</v>
+      </c>
+      <c r="D46" s="13">
+        <v>57.870111699793398</v>
+      </c>
       <c r="E46" s="7"/>
       <c r="F46" s="7"/>
       <c r="G46" s="7"/>
@@ -1208,10 +1163,18 @@
       <c r="J46" s="9"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A47" s="4"/>
-      <c r="B47" s="5"/>
-      <c r="C47" s="6"/>
-      <c r="D47" s="7"/>
+      <c r="A47">
+        <v>2009</v>
+      </c>
+      <c r="B47" s="14">
+        <v>39958</v>
+      </c>
+      <c r="C47" s="13">
+        <v>231.92857142857099</v>
+      </c>
+      <c r="D47" s="13">
+        <v>2169.50588342213</v>
+      </c>
       <c r="E47" s="7"/>
       <c r="F47" s="7"/>
       <c r="G47" s="7"/>
@@ -1220,10 +1183,18 @@
       <c r="J47" s="9"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A48" s="4"/>
-      <c r="B48" s="5"/>
-      <c r="C48" s="6"/>
-      <c r="D48" s="7"/>
+      <c r="A48">
+        <v>2009</v>
+      </c>
+      <c r="B48" s="14">
+        <v>39960</v>
+      </c>
+      <c r="C48" s="13">
+        <v>140.48484848484799</v>
+      </c>
+      <c r="D48" s="13">
+        <v>1278.5138085804799</v>
+      </c>
       <c r="E48" s="7"/>
       <c r="F48" s="7"/>
       <c r="G48" s="7"/>
@@ -1232,10 +1203,18 @@
       <c r="J48" s="9"/>
     </row>
     <row r="49" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A49" s="4"/>
-      <c r="B49" s="5"/>
-      <c r="C49" s="6"/>
-      <c r="D49" s="7"/>
+      <c r="A49">
+        <v>2009</v>
+      </c>
+      <c r="B49" s="14">
+        <v>39961</v>
+      </c>
+      <c r="C49" s="13">
+        <v>128.42307692307699</v>
+      </c>
+      <c r="D49" s="13">
+        <v>1136.9629495987699</v>
+      </c>
       <c r="E49" s="7"/>
       <c r="F49" s="7"/>
       <c r="G49" s="7"/>
@@ -1244,10 +1223,18 @@
       <c r="J49" s="9"/>
     </row>
     <row r="50" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A50" s="4"/>
-      <c r="B50" s="5"/>
-      <c r="C50" s="6"/>
-      <c r="D50" s="7"/>
+      <c r="A50">
+        <v>2009</v>
+      </c>
+      <c r="B50" s="14">
+        <v>39962</v>
+      </c>
+      <c r="C50" s="13">
+        <v>6.2</v>
+      </c>
+      <c r="D50" s="13">
+        <v>61.605648137791199</v>
+      </c>
       <c r="E50" s="7"/>
       <c r="F50" s="7"/>
       <c r="G50" s="7"/>
@@ -1256,10 +1243,18 @@
       <c r="J50" s="9"/>
     </row>
     <row r="51" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A51" s="4"/>
-      <c r="B51" s="5"/>
-      <c r="C51" s="6"/>
-      <c r="D51" s="7"/>
+      <c r="A51">
+        <v>2009</v>
+      </c>
+      <c r="B51" s="14">
+        <v>39964</v>
+      </c>
+      <c r="C51" s="13">
+        <v>12.4</v>
+      </c>
+      <c r="D51" s="13">
+        <v>114.147355993408</v>
+      </c>
       <c r="E51" s="7"/>
       <c r="F51" s="7"/>
       <c r="G51" s="7"/>
@@ -3249,339 +3244,339 @@
     </row>
     <row r="217" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A217" s="4"/>
-      <c r="B217" s="10"/>
-      <c r="C217" s="4"/>
-      <c r="D217" s="11"/>
-      <c r="E217" s="11"/>
-      <c r="F217" s="11"/>
-      <c r="G217" s="11"/>
-      <c r="H217" s="12"/>
-      <c r="I217" s="4"/>
-      <c r="J217" s="12"/>
+      <c r="B217" s="5"/>
+      <c r="C217" s="6"/>
+      <c r="D217" s="7"/>
+      <c r="E217" s="7"/>
+      <c r="F217" s="7"/>
+      <c r="G217" s="7"/>
+      <c r="H217" s="8"/>
+      <c r="I217" s="6"/>
+      <c r="J217" s="9"/>
     </row>
     <row r="218" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A218" s="4"/>
-      <c r="B218" s="10"/>
-      <c r="C218" s="4"/>
-      <c r="D218" s="11"/>
-      <c r="E218" s="11"/>
-      <c r="F218" s="11"/>
-      <c r="G218" s="11"/>
-      <c r="H218" s="12"/>
-      <c r="I218" s="4"/>
-      <c r="J218" s="12"/>
+      <c r="B218" s="5"/>
+      <c r="C218" s="6"/>
+      <c r="D218" s="7"/>
+      <c r="E218" s="7"/>
+      <c r="F218" s="7"/>
+      <c r="G218" s="7"/>
+      <c r="H218" s="8"/>
+      <c r="I218" s="6"/>
+      <c r="J218" s="9"/>
     </row>
     <row r="219" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A219" s="4"/>
-      <c r="B219" s="10"/>
-      <c r="C219" s="4"/>
-      <c r="D219" s="11"/>
-      <c r="E219" s="11"/>
-      <c r="F219" s="11"/>
-      <c r="G219" s="11"/>
-      <c r="H219" s="12"/>
-      <c r="I219" s="4"/>
-      <c r="J219" s="12"/>
+      <c r="B219" s="5"/>
+      <c r="C219" s="6"/>
+      <c r="D219" s="7"/>
+      <c r="E219" s="7"/>
+      <c r="F219" s="7"/>
+      <c r="G219" s="7"/>
+      <c r="H219" s="8"/>
+      <c r="I219" s="6"/>
+      <c r="J219" s="9"/>
     </row>
     <row r="220" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A220" s="4"/>
-      <c r="B220" s="10"/>
-      <c r="C220" s="4"/>
-      <c r="D220" s="11"/>
-      <c r="E220" s="11"/>
-      <c r="F220" s="11"/>
-      <c r="G220" s="11"/>
-      <c r="H220" s="12"/>
-      <c r="I220" s="4"/>
-      <c r="J220" s="12"/>
+      <c r="B220" s="5"/>
+      <c r="C220" s="6"/>
+      <c r="D220" s="7"/>
+      <c r="E220" s="7"/>
+      <c r="F220" s="7"/>
+      <c r="G220" s="7"/>
+      <c r="H220" s="8"/>
+      <c r="I220" s="6"/>
+      <c r="J220" s="9"/>
     </row>
     <row r="221" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A221" s="4"/>
-      <c r="B221" s="10"/>
-      <c r="C221" s="4"/>
-      <c r="D221" s="11"/>
-      <c r="E221" s="11"/>
-      <c r="F221" s="11"/>
-      <c r="G221" s="11"/>
-      <c r="H221" s="12"/>
-      <c r="I221" s="4"/>
-      <c r="J221" s="12"/>
+      <c r="B221" s="5"/>
+      <c r="C221" s="6"/>
+      <c r="D221" s="7"/>
+      <c r="E221" s="7"/>
+      <c r="F221" s="7"/>
+      <c r="G221" s="7"/>
+      <c r="H221" s="8"/>
+      <c r="I221" s="6"/>
+      <c r="J221" s="9"/>
     </row>
     <row r="222" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A222" s="4"/>
-      <c r="B222" s="10"/>
-      <c r="C222" s="4"/>
-      <c r="D222" s="11"/>
-      <c r="E222" s="11"/>
-      <c r="F222" s="11"/>
-      <c r="G222" s="11"/>
-      <c r="H222" s="12"/>
-      <c r="I222" s="4"/>
-      <c r="J222" s="12"/>
+      <c r="B222" s="5"/>
+      <c r="C222" s="6"/>
+      <c r="D222" s="7"/>
+      <c r="E222" s="7"/>
+      <c r="F222" s="7"/>
+      <c r="G222" s="7"/>
+      <c r="H222" s="8"/>
+      <c r="I222" s="6"/>
+      <c r="J222" s="9"/>
     </row>
     <row r="223" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A223" s="4"/>
-      <c r="B223" s="10"/>
-      <c r="C223" s="4"/>
-      <c r="D223" s="11"/>
-      <c r="E223" s="11"/>
-      <c r="F223" s="11"/>
-      <c r="G223" s="11"/>
-      <c r="H223" s="12"/>
-      <c r="I223" s="4"/>
-      <c r="J223" s="12"/>
+      <c r="B223" s="5"/>
+      <c r="C223" s="6"/>
+      <c r="D223" s="7"/>
+      <c r="E223" s="7"/>
+      <c r="F223" s="7"/>
+      <c r="G223" s="7"/>
+      <c r="H223" s="8"/>
+      <c r="I223" s="6"/>
+      <c r="J223" s="9"/>
     </row>
     <row r="224" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A224" s="4"/>
-      <c r="B224" s="10"/>
-      <c r="C224" s="4"/>
-      <c r="D224" s="11"/>
-      <c r="E224" s="11"/>
-      <c r="F224" s="11"/>
-      <c r="G224" s="11"/>
-      <c r="H224" s="12"/>
-      <c r="I224" s="4"/>
-      <c r="J224" s="12"/>
+      <c r="B224" s="5"/>
+      <c r="C224" s="6"/>
+      <c r="D224" s="7"/>
+      <c r="E224" s="7"/>
+      <c r="F224" s="7"/>
+      <c r="G224" s="7"/>
+      <c r="H224" s="8"/>
+      <c r="I224" s="6"/>
+      <c r="J224" s="9"/>
     </row>
     <row r="225" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A225" s="4"/>
-      <c r="B225" s="10"/>
-      <c r="C225" s="4"/>
-      <c r="D225" s="11"/>
-      <c r="E225" s="11"/>
-      <c r="F225" s="11"/>
-      <c r="G225" s="11"/>
-      <c r="H225" s="12"/>
-      <c r="I225" s="4"/>
-      <c r="J225" s="12"/>
+      <c r="B225" s="5"/>
+      <c r="C225" s="6"/>
+      <c r="D225" s="7"/>
+      <c r="E225" s="7"/>
+      <c r="F225" s="7"/>
+      <c r="G225" s="7"/>
+      <c r="H225" s="8"/>
+      <c r="I225" s="6"/>
+      <c r="J225" s="9"/>
     </row>
     <row r="226" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A226" s="4"/>
-      <c r="B226" s="10"/>
-      <c r="C226" s="4"/>
-      <c r="D226" s="11"/>
-      <c r="E226" s="11"/>
-      <c r="F226" s="11"/>
-      <c r="G226" s="11"/>
-      <c r="H226" s="12"/>
-      <c r="I226" s="4"/>
-      <c r="J226" s="12"/>
+      <c r="B226" s="5"/>
+      <c r="C226" s="6"/>
+      <c r="D226" s="7"/>
+      <c r="E226" s="7"/>
+      <c r="F226" s="7"/>
+      <c r="G226" s="7"/>
+      <c r="H226" s="8"/>
+      <c r="I226" s="6"/>
+      <c r="J226" s="9"/>
     </row>
     <row r="227" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A227" s="4"/>
-      <c r="B227" s="10"/>
-      <c r="C227" s="4"/>
-      <c r="D227" s="11"/>
-      <c r="E227" s="11"/>
-      <c r="F227" s="11"/>
-      <c r="G227" s="11"/>
-      <c r="H227" s="12"/>
-      <c r="I227" s="4"/>
-      <c r="J227" s="12"/>
+      <c r="B227" s="5"/>
+      <c r="C227" s="6"/>
+      <c r="D227" s="7"/>
+      <c r="E227" s="7"/>
+      <c r="F227" s="7"/>
+      <c r="G227" s="7"/>
+      <c r="H227" s="8"/>
+      <c r="I227" s="6"/>
+      <c r="J227" s="9"/>
     </row>
     <row r="228" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A228" s="4"/>
-      <c r="B228" s="10"/>
-      <c r="C228" s="4"/>
-      <c r="D228" s="11"/>
-      <c r="E228" s="11"/>
-      <c r="F228" s="11"/>
-      <c r="G228" s="11"/>
-      <c r="H228" s="12"/>
-      <c r="I228" s="4"/>
-      <c r="J228" s="12"/>
+      <c r="B228" s="5"/>
+      <c r="C228" s="6"/>
+      <c r="D228" s="7"/>
+      <c r="E228" s="7"/>
+      <c r="F228" s="7"/>
+      <c r="G228" s="7"/>
+      <c r="H228" s="8"/>
+      <c r="I228" s="6"/>
+      <c r="J228" s="9"/>
     </row>
     <row r="229" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A229" s="4"/>
-      <c r="B229" s="10"/>
-      <c r="C229" s="4"/>
-      <c r="D229" s="11"/>
-      <c r="E229" s="11"/>
-      <c r="F229" s="11"/>
-      <c r="G229" s="11"/>
-      <c r="H229" s="12"/>
-      <c r="I229" s="4"/>
-      <c r="J229" s="12"/>
+      <c r="B229" s="5"/>
+      <c r="C229" s="6"/>
+      <c r="D229" s="7"/>
+      <c r="E229" s="7"/>
+      <c r="F229" s="7"/>
+      <c r="G229" s="7"/>
+      <c r="H229" s="8"/>
+      <c r="I229" s="6"/>
+      <c r="J229" s="9"/>
     </row>
     <row r="230" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A230" s="4"/>
-      <c r="B230" s="10"/>
-      <c r="C230" s="4"/>
-      <c r="D230" s="11"/>
-      <c r="E230" s="11"/>
-      <c r="F230" s="11"/>
-      <c r="G230" s="11"/>
-      <c r="H230" s="12"/>
-      <c r="I230" s="4"/>
-      <c r="J230" s="12"/>
+      <c r="B230" s="5"/>
+      <c r="C230" s="6"/>
+      <c r="D230" s="7"/>
+      <c r="E230" s="7"/>
+      <c r="F230" s="7"/>
+      <c r="G230" s="7"/>
+      <c r="H230" s="8"/>
+      <c r="I230" s="6"/>
+      <c r="J230" s="9"/>
     </row>
     <row r="231" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A231" s="4"/>
-      <c r="B231" s="10"/>
-      <c r="C231" s="4"/>
-      <c r="D231" s="11"/>
-      <c r="E231" s="11"/>
-      <c r="F231" s="11"/>
-      <c r="G231" s="11"/>
-      <c r="H231" s="12"/>
-      <c r="I231" s="4"/>
-      <c r="J231" s="12"/>
+      <c r="B231" s="5"/>
+      <c r="C231" s="6"/>
+      <c r="D231" s="7"/>
+      <c r="E231" s="7"/>
+      <c r="F231" s="7"/>
+      <c r="G231" s="7"/>
+      <c r="H231" s="8"/>
+      <c r="I231" s="6"/>
+      <c r="J231" s="9"/>
     </row>
     <row r="232" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A232" s="4"/>
-      <c r="B232" s="10"/>
-      <c r="C232" s="4"/>
-      <c r="D232" s="11"/>
-      <c r="E232" s="11"/>
-      <c r="F232" s="11"/>
-      <c r="G232" s="11"/>
-      <c r="H232" s="12"/>
-      <c r="I232" s="4"/>
-      <c r="J232" s="12"/>
+      <c r="B232" s="5"/>
+      <c r="C232" s="6"/>
+      <c r="D232" s="7"/>
+      <c r="E232" s="7"/>
+      <c r="F232" s="7"/>
+      <c r="G232" s="7"/>
+      <c r="H232" s="8"/>
+      <c r="I232" s="6"/>
+      <c r="J232" s="9"/>
     </row>
     <row r="233" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A233" s="4"/>
-      <c r="B233" s="10"/>
-      <c r="C233" s="4"/>
-      <c r="D233" s="11"/>
-      <c r="E233" s="11"/>
-      <c r="F233" s="11"/>
-      <c r="G233" s="11"/>
-      <c r="H233" s="12"/>
-      <c r="I233" s="4"/>
-      <c r="J233" s="12"/>
+      <c r="B233" s="5"/>
+      <c r="C233" s="6"/>
+      <c r="D233" s="7"/>
+      <c r="E233" s="7"/>
+      <c r="F233" s="7"/>
+      <c r="G233" s="7"/>
+      <c r="H233" s="8"/>
+      <c r="I233" s="6"/>
+      <c r="J233" s="9"/>
     </row>
     <row r="234" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A234" s="4"/>
-      <c r="B234" s="10"/>
-      <c r="C234" s="4"/>
-      <c r="D234" s="11"/>
-      <c r="E234" s="11"/>
-      <c r="F234" s="11"/>
-      <c r="G234" s="11"/>
-      <c r="H234" s="12"/>
-      <c r="I234" s="4"/>
-      <c r="J234" s="12"/>
+      <c r="B234" s="5"/>
+      <c r="C234" s="6"/>
+      <c r="D234" s="7"/>
+      <c r="E234" s="7"/>
+      <c r="F234" s="7"/>
+      <c r="G234" s="7"/>
+      <c r="H234" s="8"/>
+      <c r="I234" s="6"/>
+      <c r="J234" s="9"/>
     </row>
     <row r="235" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A235" s="4"/>
-      <c r="B235" s="10"/>
-      <c r="C235" s="4"/>
-      <c r="D235" s="11"/>
-      <c r="E235" s="11"/>
-      <c r="F235" s="11"/>
-      <c r="G235" s="11"/>
-      <c r="H235" s="12"/>
-      <c r="I235" s="4"/>
-      <c r="J235" s="12"/>
+      <c r="B235" s="5"/>
+      <c r="C235" s="6"/>
+      <c r="D235" s="7"/>
+      <c r="E235" s="7"/>
+      <c r="F235" s="7"/>
+      <c r="G235" s="7"/>
+      <c r="H235" s="8"/>
+      <c r="I235" s="6"/>
+      <c r="J235" s="9"/>
     </row>
     <row r="236" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A236" s="4"/>
-      <c r="B236" s="10"/>
-      <c r="C236" s="4"/>
-      <c r="D236" s="11"/>
-      <c r="E236" s="11"/>
-      <c r="F236" s="11"/>
-      <c r="G236" s="11"/>
-      <c r="H236" s="12"/>
-      <c r="I236" s="4"/>
-      <c r="J236" s="12"/>
+      <c r="B236" s="5"/>
+      <c r="C236" s="6"/>
+      <c r="D236" s="7"/>
+      <c r="E236" s="7"/>
+      <c r="F236" s="7"/>
+      <c r="G236" s="7"/>
+      <c r="H236" s="8"/>
+      <c r="I236" s="6"/>
+      <c r="J236" s="9"/>
     </row>
     <row r="237" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A237" s="4"/>
-      <c r="B237" s="10"/>
-      <c r="C237" s="4"/>
-      <c r="D237" s="11"/>
-      <c r="E237" s="11"/>
-      <c r="F237" s="11"/>
-      <c r="G237" s="11"/>
-      <c r="H237" s="12"/>
-      <c r="I237" s="4"/>
-      <c r="J237" s="12"/>
+      <c r="B237" s="5"/>
+      <c r="C237" s="6"/>
+      <c r="D237" s="7"/>
+      <c r="E237" s="7"/>
+      <c r="F237" s="7"/>
+      <c r="G237" s="7"/>
+      <c r="H237" s="8"/>
+      <c r="I237" s="6"/>
+      <c r="J237" s="9"/>
     </row>
     <row r="238" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A238" s="4"/>
-      <c r="B238" s="10"/>
-      <c r="C238" s="4"/>
-      <c r="D238" s="11"/>
-      <c r="E238" s="11"/>
-      <c r="F238" s="11"/>
-      <c r="G238" s="11"/>
-      <c r="H238" s="12"/>
-      <c r="I238" s="4"/>
-      <c r="J238" s="12"/>
+      <c r="B238" s="5"/>
+      <c r="C238" s="6"/>
+      <c r="D238" s="7"/>
+      <c r="E238" s="7"/>
+      <c r="F238" s="7"/>
+      <c r="G238" s="7"/>
+      <c r="H238" s="8"/>
+      <c r="I238" s="6"/>
+      <c r="J238" s="9"/>
     </row>
     <row r="239" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A239" s="4"/>
-      <c r="B239" s="10"/>
-      <c r="C239" s="4"/>
-      <c r="D239" s="11"/>
-      <c r="E239" s="11"/>
-      <c r="F239" s="11"/>
-      <c r="G239" s="11"/>
-      <c r="H239" s="12"/>
-      <c r="I239" s="4"/>
-      <c r="J239" s="12"/>
+      <c r="B239" s="5"/>
+      <c r="C239" s="6"/>
+      <c r="D239" s="7"/>
+      <c r="E239" s="7"/>
+      <c r="F239" s="7"/>
+      <c r="G239" s="7"/>
+      <c r="H239" s="8"/>
+      <c r="I239" s="6"/>
+      <c r="J239" s="9"/>
     </row>
     <row r="240" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A240" s="4"/>
-      <c r="B240" s="10"/>
-      <c r="C240" s="4"/>
-      <c r="D240" s="11"/>
-      <c r="E240" s="11"/>
-      <c r="F240" s="11"/>
-      <c r="G240" s="11"/>
-      <c r="H240" s="12"/>
-      <c r="I240" s="4"/>
-      <c r="J240" s="12"/>
+      <c r="B240" s="5"/>
+      <c r="C240" s="6"/>
+      <c r="D240" s="7"/>
+      <c r="E240" s="7"/>
+      <c r="F240" s="7"/>
+      <c r="G240" s="7"/>
+      <c r="H240" s="8"/>
+      <c r="I240" s="6"/>
+      <c r="J240" s="9"/>
     </row>
     <row r="241" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A241" s="4"/>
-      <c r="B241" s="10"/>
-      <c r="C241" s="4"/>
-      <c r="D241" s="11"/>
-      <c r="E241" s="11"/>
-      <c r="F241" s="11"/>
-      <c r="G241" s="11"/>
-      <c r="H241" s="12"/>
-      <c r="I241" s="4"/>
-      <c r="J241" s="12"/>
+      <c r="B241" s="5"/>
+      <c r="C241" s="6"/>
+      <c r="D241" s="7"/>
+      <c r="E241" s="7"/>
+      <c r="F241" s="7"/>
+      <c r="G241" s="7"/>
+      <c r="H241" s="8"/>
+      <c r="I241" s="6"/>
+      <c r="J241" s="9"/>
     </row>
     <row r="242" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A242" s="4"/>
-      <c r="B242" s="10"/>
-      <c r="C242" s="4"/>
-      <c r="D242" s="11"/>
-      <c r="E242" s="11"/>
-      <c r="F242" s="11"/>
-      <c r="G242" s="11"/>
-      <c r="H242" s="12"/>
-      <c r="I242" s="4"/>
-      <c r="J242" s="12"/>
+      <c r="B242" s="5"/>
+      <c r="C242" s="6"/>
+      <c r="D242" s="7"/>
+      <c r="E242" s="7"/>
+      <c r="F242" s="7"/>
+      <c r="G242" s="7"/>
+      <c r="H242" s="8"/>
+      <c r="I242" s="6"/>
+      <c r="J242" s="9"/>
     </row>
     <row r="243" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A243" s="4"/>
-      <c r="B243" s="10"/>
-      <c r="C243" s="4"/>
-      <c r="D243" s="11"/>
-      <c r="E243" s="11"/>
-      <c r="F243" s="11"/>
-      <c r="G243" s="11"/>
-      <c r="H243" s="12"/>
-      <c r="I243" s="4"/>
-      <c r="J243" s="12"/>
+      <c r="B243" s="5"/>
+      <c r="C243" s="6"/>
+      <c r="D243" s="7"/>
+      <c r="E243" s="7"/>
+      <c r="F243" s="7"/>
+      <c r="G243" s="7"/>
+      <c r="H243" s="8"/>
+      <c r="I243" s="6"/>
+      <c r="J243" s="9"/>
     </row>
     <row r="244" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A244" s="4"/>
-      <c r="B244" s="10"/>
-      <c r="C244" s="4"/>
-      <c r="D244" s="11"/>
-      <c r="E244" s="11"/>
-      <c r="F244" s="11"/>
-      <c r="G244" s="11"/>
-      <c r="H244" s="12"/>
-      <c r="I244" s="4"/>
-      <c r="J244" s="12"/>
+      <c r="B244" s="5"/>
+      <c r="C244" s="6"/>
+      <c r="D244" s="7"/>
+      <c r="E244" s="7"/>
+      <c r="F244" s="7"/>
+      <c r="G244" s="7"/>
+      <c r="H244" s="8"/>
+      <c r="I244" s="6"/>
+      <c r="J244" s="9"/>
     </row>
     <row r="245" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A245" s="4"/>
@@ -4009,7 +4004,7 @@
       <c r="C280" s="4"/>
       <c r="D280" s="11"/>
       <c r="E280" s="11"/>
-      <c r="F280" s="4"/>
+      <c r="F280" s="11"/>
       <c r="G280" s="11"/>
       <c r="H280" s="12"/>
       <c r="I280" s="4"/>
@@ -4345,7 +4340,7 @@
       <c r="C308" s="4"/>
       <c r="D308" s="11"/>
       <c r="E308" s="11"/>
-      <c r="F308" s="11"/>
+      <c r="F308" s="4"/>
       <c r="G308" s="11"/>
       <c r="H308" s="12"/>
       <c r="I308" s="4"/>
@@ -5419,6 +5414,342 @@
       <c r="I397" s="4"/>
       <c r="J397" s="12"/>
     </row>
+    <row r="398" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A398" s="4"/>
+      <c r="B398" s="10"/>
+      <c r="C398" s="4"/>
+      <c r="D398" s="11"/>
+      <c r="E398" s="11"/>
+      <c r="F398" s="11"/>
+      <c r="G398" s="11"/>
+      <c r="H398" s="12"/>
+      <c r="I398" s="4"/>
+      <c r="J398" s="12"/>
+    </row>
+    <row r="399" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A399" s="4"/>
+      <c r="B399" s="10"/>
+      <c r="C399" s="4"/>
+      <c r="D399" s="11"/>
+      <c r="E399" s="11"/>
+      <c r="F399" s="11"/>
+      <c r="G399" s="11"/>
+      <c r="H399" s="12"/>
+      <c r="I399" s="4"/>
+      <c r="J399" s="12"/>
+    </row>
+    <row r="400" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A400" s="4"/>
+      <c r="B400" s="10"/>
+      <c r="C400" s="4"/>
+      <c r="D400" s="11"/>
+      <c r="E400" s="11"/>
+      <c r="F400" s="11"/>
+      <c r="G400" s="11"/>
+      <c r="H400" s="12"/>
+      <c r="I400" s="4"/>
+      <c r="J400" s="12"/>
+    </row>
+    <row r="401" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A401" s="4"/>
+      <c r="B401" s="10"/>
+      <c r="C401" s="4"/>
+      <c r="D401" s="11"/>
+      <c r="E401" s="11"/>
+      <c r="F401" s="11"/>
+      <c r="G401" s="11"/>
+      <c r="H401" s="12"/>
+      <c r="I401" s="4"/>
+      <c r="J401" s="12"/>
+    </row>
+    <row r="402" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A402" s="4"/>
+      <c r="B402" s="10"/>
+      <c r="C402" s="4"/>
+      <c r="D402" s="11"/>
+      <c r="E402" s="11"/>
+      <c r="F402" s="11"/>
+      <c r="G402" s="11"/>
+      <c r="H402" s="12"/>
+      <c r="I402" s="4"/>
+      <c r="J402" s="12"/>
+    </row>
+    <row r="403" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A403" s="4"/>
+      <c r="B403" s="10"/>
+      <c r="C403" s="4"/>
+      <c r="D403" s="11"/>
+      <c r="E403" s="11"/>
+      <c r="F403" s="11"/>
+      <c r="G403" s="11"/>
+      <c r="H403" s="12"/>
+      <c r="I403" s="4"/>
+      <c r="J403" s="12"/>
+    </row>
+    <row r="404" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A404" s="4"/>
+      <c r="B404" s="10"/>
+      <c r="C404" s="4"/>
+      <c r="D404" s="11"/>
+      <c r="E404" s="11"/>
+      <c r="F404" s="11"/>
+      <c r="G404" s="11"/>
+      <c r="H404" s="12"/>
+      <c r="I404" s="4"/>
+      <c r="J404" s="12"/>
+    </row>
+    <row r="405" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A405" s="4"/>
+      <c r="B405" s="10"/>
+      <c r="C405" s="4"/>
+      <c r="D405" s="11"/>
+      <c r="E405" s="11"/>
+      <c r="F405" s="11"/>
+      <c r="G405" s="11"/>
+      <c r="H405" s="12"/>
+      <c r="I405" s="4"/>
+      <c r="J405" s="12"/>
+    </row>
+    <row r="406" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A406" s="4"/>
+      <c r="B406" s="10"/>
+      <c r="C406" s="4"/>
+      <c r="D406" s="11"/>
+      <c r="E406" s="11"/>
+      <c r="F406" s="11"/>
+      <c r="G406" s="11"/>
+      <c r="H406" s="12"/>
+      <c r="I406" s="4"/>
+      <c r="J406" s="12"/>
+    </row>
+    <row r="407" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A407" s="4"/>
+      <c r="B407" s="10"/>
+      <c r="C407" s="4"/>
+      <c r="D407" s="11"/>
+      <c r="E407" s="11"/>
+      <c r="F407" s="11"/>
+      <c r="G407" s="11"/>
+      <c r="H407" s="12"/>
+      <c r="I407" s="4"/>
+      <c r="J407" s="12"/>
+    </row>
+    <row r="408" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A408" s="4"/>
+      <c r="B408" s="10"/>
+      <c r="C408" s="4"/>
+      <c r="D408" s="11"/>
+      <c r="E408" s="11"/>
+      <c r="F408" s="11"/>
+      <c r="G408" s="11"/>
+      <c r="H408" s="12"/>
+      <c r="I408" s="4"/>
+      <c r="J408" s="12"/>
+    </row>
+    <row r="409" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A409" s="4"/>
+      <c r="B409" s="10"/>
+      <c r="C409" s="4"/>
+      <c r="D409" s="11"/>
+      <c r="E409" s="11"/>
+      <c r="F409" s="11"/>
+      <c r="G409" s="11"/>
+      <c r="H409" s="12"/>
+      <c r="I409" s="4"/>
+      <c r="J409" s="12"/>
+    </row>
+    <row r="410" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A410" s="4"/>
+      <c r="B410" s="10"/>
+      <c r="C410" s="4"/>
+      <c r="D410" s="11"/>
+      <c r="E410" s="11"/>
+      <c r="F410" s="11"/>
+      <c r="G410" s="11"/>
+      <c r="H410" s="12"/>
+      <c r="I410" s="4"/>
+      <c r="J410" s="12"/>
+    </row>
+    <row r="411" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A411" s="4"/>
+      <c r="B411" s="10"/>
+      <c r="C411" s="4"/>
+      <c r="D411" s="11"/>
+      <c r="E411" s="11"/>
+      <c r="F411" s="11"/>
+      <c r="G411" s="11"/>
+      <c r="H411" s="12"/>
+      <c r="I411" s="4"/>
+      <c r="J411" s="12"/>
+    </row>
+    <row r="412" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A412" s="4"/>
+      <c r="B412" s="10"/>
+      <c r="C412" s="4"/>
+      <c r="D412" s="11"/>
+      <c r="E412" s="11"/>
+      <c r="F412" s="11"/>
+      <c r="G412" s="11"/>
+      <c r="H412" s="12"/>
+      <c r="I412" s="4"/>
+      <c r="J412" s="12"/>
+    </row>
+    <row r="413" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A413" s="4"/>
+      <c r="B413" s="10"/>
+      <c r="C413" s="4"/>
+      <c r="D413" s="11"/>
+      <c r="E413" s="11"/>
+      <c r="F413" s="11"/>
+      <c r="G413" s="11"/>
+      <c r="H413" s="12"/>
+      <c r="I413" s="4"/>
+      <c r="J413" s="12"/>
+    </row>
+    <row r="414" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A414" s="4"/>
+      <c r="B414" s="10"/>
+      <c r="C414" s="4"/>
+      <c r="D414" s="11"/>
+      <c r="E414" s="11"/>
+      <c r="F414" s="11"/>
+      <c r="G414" s="11"/>
+      <c r="H414" s="12"/>
+      <c r="I414" s="4"/>
+      <c r="J414" s="12"/>
+    </row>
+    <row r="415" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A415" s="4"/>
+      <c r="B415" s="10"/>
+      <c r="C415" s="4"/>
+      <c r="D415" s="11"/>
+      <c r="E415" s="11"/>
+      <c r="F415" s="11"/>
+      <c r="G415" s="11"/>
+      <c r="H415" s="12"/>
+      <c r="I415" s="4"/>
+      <c r="J415" s="12"/>
+    </row>
+    <row r="416" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A416" s="4"/>
+      <c r="B416" s="10"/>
+      <c r="C416" s="4"/>
+      <c r="D416" s="11"/>
+      <c r="E416" s="11"/>
+      <c r="F416" s="11"/>
+      <c r="G416" s="11"/>
+      <c r="H416" s="12"/>
+      <c r="I416" s="4"/>
+      <c r="J416" s="12"/>
+    </row>
+    <row r="417" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A417" s="4"/>
+      <c r="B417" s="10"/>
+      <c r="C417" s="4"/>
+      <c r="D417" s="11"/>
+      <c r="E417" s="11"/>
+      <c r="F417" s="11"/>
+      <c r="G417" s="11"/>
+      <c r="H417" s="12"/>
+      <c r="I417" s="4"/>
+      <c r="J417" s="12"/>
+    </row>
+    <row r="418" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A418" s="4"/>
+      <c r="B418" s="10"/>
+      <c r="C418" s="4"/>
+      <c r="D418" s="11"/>
+      <c r="E418" s="11"/>
+      <c r="F418" s="11"/>
+      <c r="G418" s="11"/>
+      <c r="H418" s="12"/>
+      <c r="I418" s="4"/>
+      <c r="J418" s="12"/>
+    </row>
+    <row r="419" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A419" s="4"/>
+      <c r="B419" s="10"/>
+      <c r="C419" s="4"/>
+      <c r="D419" s="11"/>
+      <c r="E419" s="11"/>
+      <c r="F419" s="11"/>
+      <c r="G419" s="11"/>
+      <c r="H419" s="12"/>
+      <c r="I419" s="4"/>
+      <c r="J419" s="12"/>
+    </row>
+    <row r="420" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A420" s="4"/>
+      <c r="B420" s="10"/>
+      <c r="C420" s="4"/>
+      <c r="D420" s="11"/>
+      <c r="E420" s="11"/>
+      <c r="F420" s="11"/>
+      <c r="G420" s="11"/>
+      <c r="H420" s="12"/>
+      <c r="I420" s="4"/>
+      <c r="J420" s="12"/>
+    </row>
+    <row r="421" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A421" s="4"/>
+      <c r="B421" s="10"/>
+      <c r="C421" s="4"/>
+      <c r="D421" s="11"/>
+      <c r="E421" s="11"/>
+      <c r="F421" s="11"/>
+      <c r="G421" s="11"/>
+      <c r="H421" s="12"/>
+      <c r="I421" s="4"/>
+      <c r="J421" s="12"/>
+    </row>
+    <row r="422" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A422" s="4"/>
+      <c r="B422" s="10"/>
+      <c r="C422" s="4"/>
+      <c r="D422" s="11"/>
+      <c r="E422" s="11"/>
+      <c r="F422" s="11"/>
+      <c r="G422" s="11"/>
+      <c r="H422" s="12"/>
+      <c r="I422" s="4"/>
+      <c r="J422" s="12"/>
+    </row>
+    <row r="423" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A423" s="4"/>
+      <c r="B423" s="10"/>
+      <c r="C423" s="4"/>
+      <c r="D423" s="11"/>
+      <c r="E423" s="11"/>
+      <c r="F423" s="11"/>
+      <c r="G423" s="11"/>
+      <c r="H423" s="12"/>
+      <c r="I423" s="4"/>
+      <c r="J423" s="12"/>
+    </row>
+    <row r="424" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A424" s="4"/>
+      <c r="B424" s="10"/>
+      <c r="C424" s="4"/>
+      <c r="D424" s="11"/>
+      <c r="E424" s="11"/>
+      <c r="F424" s="11"/>
+      <c r="G424" s="11"/>
+      <c r="H424" s="12"/>
+      <c r="I424" s="4"/>
+      <c r="J424" s="12"/>
+    </row>
+    <row r="425" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="A425" s="4"/>
+      <c r="B425" s="10"/>
+      <c r="C425" s="4"/>
+      <c r="D425" s="11"/>
+      <c r="E425" s="11"/>
+      <c r="F425" s="11"/>
+      <c r="G425" s="11"/>
+      <c r="H425" s="12"/>
+      <c r="I425" s="4"/>
+      <c r="J425" s="12"/>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
